--- a/biology/Botanique/Aira_tenorei/Aira_tenorei.xlsx
+++ b/biology/Botanique/Aira_tenorei/Aira_tenorei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aira tenorei Guss., 1827, est une espèce de plantes herbacées du genre Aira de la famille des Poaceae (graminées).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle de 10-40 cm, glabre, à racine fibreuse, tiges grêles, dressées, souvent fasciculées, feuilles courtes, sétacées, à gaines scabres, ligule lancéolée, panicule ample, étalée-divariquée, très lâche, à longs rameaux capillaires, pédicelles 5-8 fois plus longs que l'épillet, dilatés obliquement au sommet. Epillets très petites (1 12 mm), ovoïdes-subglobuleux, écartés, fleurs glabres à la base, mutiques fleurissant en avril juillet, glumes ovales-obtuses, érodées, lisses ou peu scabres, glumelle inférieure égalant les 23 des glumes, subobtuse et infléchie en dedans, sans arête. Varie à épillets de 2 mm ovoïdes, glumelle de la fleur supérieure brièvement bifide et aristée (A. intermedia Guss.).
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lieux sablonneux de la région méditerranéenne : Var, Alpes-Maritimes ; Corse.
 Répartition Espagne, Baléares, Sardaigne, Sicile, Italie, Grèce ; Afrique septentrionale.
@@ -574,7 +590,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aira tenorei est nommé dans le livre rouge de la flore menacée de France INPN
 </t>
